--- a/examples/test_simple_macro.xlsx
+++ b/examples/test_simple_macro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8C2E8-EB8C-E645-ADB2-A51FEA74EC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB511-EA30-C948-A0F3-03A2F7263164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1200" windowWidth="24880" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
